--- a/csv/AUC_070223.xlsx
+++ b/csv/AUC_070223.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastassia Kolde\Documents\Israel secondment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastassia Kolde\Documents\GitHub\UnstableEpilepsy\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
   </bookViews>
   <sheets>
     <sheet name="Leht1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="77">
   <si>
     <t>Drug</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>auc: 0.56 (upper: 0.67, lower: 0.45)</t>
+  </si>
+  <si>
+    <t>data:BB_model:BB</t>
   </si>
 </sst>
 </file>
@@ -573,20 +576,20 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="31.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -603,13 +606,13 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -632,7 +635,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -655,7 +658,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -678,7 +681,7 @@
         <v>0.51800000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -701,7 +704,7 @@
         <v>0.879</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -724,7 +727,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -747,7 +750,7 @@
         <v>0.78300000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -770,7 +773,7 @@
         <v>0.68899999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -793,7 +796,7 @@
         <v>0.78100000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -816,7 +819,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -839,7 +842,7 @@
         <v>0.66300000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -862,7 +865,7 @@
         <v>0.252</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -885,7 +888,7 @@
         <v>0.52400000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -908,7 +911,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -931,7 +934,7 @@
         <v>0.79800000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -954,7 +957,7 @@
         <v>0.183</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -977,7 +980,7 @@
         <v>0.70099999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -994,7 +997,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -1011,7 +1014,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -1028,7 +1031,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -1045,7 +1048,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -1062,7 +1065,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -1079,7 +1082,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>41</v>
       </c>
@@ -1096,7 +1099,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -1113,7 +1116,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -1130,7 +1133,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -1147,7 +1150,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -1164,7 +1167,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -1181,7 +1184,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>50</v>
       </c>
@@ -1198,7 +1201,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -1215,7 +1218,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -1232,7 +1235,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -1249,7 +1252,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -1266,7 +1269,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>58</v>
       </c>
@@ -1283,7 +1286,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>58</v>
       </c>
@@ -1300,7 +1303,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>58</v>
       </c>
@@ -1317,7 +1320,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -1334,7 +1337,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>58</v>
       </c>
@@ -1351,7 +1354,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>58</v>
       </c>
@@ -1368,7 +1371,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>58</v>
       </c>
@@ -1385,7 +1388,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -1402,7 +1405,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>67</v>
       </c>
@@ -1419,7 +1422,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>67</v>
       </c>
@@ -1436,7 +1439,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>67</v>
       </c>
@@ -1453,7 +1456,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>67</v>
       </c>
@@ -1470,7 +1473,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>67</v>
       </c>
@@ -1487,7 +1490,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>67</v>
       </c>
@@ -1504,7 +1507,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>67</v>
       </c>

--- a/csv/AUC_070223.xlsx
+++ b/csv/AUC_070223.xlsx
@@ -270,12 +270,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -290,9 +296,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normaallaad" xfId="0" builtinId="0"/>
@@ -576,7 +583,7 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -671,7 +678,7 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -720,7 +727,7 @@
       <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G6" s="1">
@@ -878,7 +885,7 @@
       <c r="D13" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -904,7 +911,7 @@
       <c r="E14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G14" s="1">
